--- a/src/test/java/dataEngine/Configuration - Work Order 2.xlsx
+++ b/src/test/java/dataEngine/Configuration - Work Order 2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>maxadmin</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -421,8 +421,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -720,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,14 +798,14 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8">
@@ -787,67 +815,67 @@
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -856,19 +884,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="6" t="b">
         <v>1</v>
@@ -877,19 +905,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="6" t="b">
         <v>1</v>
@@ -898,19 +926,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="6" t="b">
         <v>1</v>
@@ -919,19 +947,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="6" t="b">
         <v>1</v>
@@ -940,19 +968,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="6" t="b">
         <v>1</v>
@@ -961,19 +989,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="6" t="b">
         <v>1</v>
@@ -982,19 +1010,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="6" t="b">
         <v>0</v>
@@ -1003,19 +1031,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="6">
         <v>1</v>
@@ -1024,19 +1052,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
@@ -1045,19 +1073,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="6">
         <v>1000001</v>
@@ -1066,19 +1094,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="6">
         <v>1</v>
@@ -1087,19 +1115,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
@@ -1108,19 +1136,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="6" t="b">
         <v>0</v>
@@ -1129,19 +1157,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="6" t="b">
         <v>0</v>
@@ -1150,19 +1178,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="6" t="b">
         <v>0</v>
@@ -1171,19 +1199,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="6" t="b">
         <v>0</v>
@@ -1192,19 +1220,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="6" t="b">
         <v>0</v>
@@ -1213,19 +1241,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="6" t="b">
         <v>0</v>
@@ -1234,19 +1262,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" s="6" t="b">
         <v>1</v>
@@ -1255,19 +1283,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="6" t="b">
         <v>1</v>
@@ -1276,19 +1304,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" s="6" t="b">
         <v>1</v>
@@ -1297,19 +1325,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="6" t="b">
         <v>1</v>
@@ -1318,19 +1346,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="6" t="b">
         <v>1</v>
@@ -1339,19 +1367,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="6" t="b">
         <v>1</v>
@@ -1360,19 +1388,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H30" s="6" t="b">
         <v>1</v>
@@ -1381,19 +1409,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="6" t="b">
         <v>0</v>
@@ -1402,19 +1430,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H32" s="6" t="b">
         <v>0</v>
@@ -1423,19 +1451,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="6">
         <v>1</v>
@@ -1444,19 +1472,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
@@ -1465,19 +1493,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
@@ -1486,19 +1514,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" s="6" t="b">
         <v>0</v>
@@ -1507,19 +1535,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" s="6" t="b">
         <v>0</v>
@@ -1528,19 +1556,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" s="6" t="b">
         <v>0</v>
@@ -1549,19 +1577,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H39" s="6" t="b">
         <v>0</v>
@@ -1570,19 +1598,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H40" s="6" t="b">
         <v>0</v>
@@ -1591,19 +1619,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="6" t="b">
         <v>0</v>
@@ -1612,19 +1640,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H42" s="6" t="b">
         <v>1</v>
@@ -1633,19 +1661,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" s="6" t="b">
         <v>1</v>
@@ -1654,19 +1682,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H44" s="6" t="b">
         <v>0</v>
@@ -1675,19 +1703,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H45" s="6" t="b">
         <v>1</v>
@@ -1696,19 +1724,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -1717,40 +1745,40 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="6">
         <v>1</v>
@@ -1759,19 +1787,19 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="6">
         <v>1</v>
@@ -1780,19 +1808,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H50" s="6" t="b">
         <v>0</v>
@@ -1801,19 +1829,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51" s="6" t="b">
         <v>1</v>
@@ -1822,61 +1850,61 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H54" s="6" t="b">
         <v>1</v>
